--- a/data-raw/Eugene/byhand_cover-crop-planting-dates.xlsx
+++ b/data-raw/Eugene/byhand_cover-crop-planting-dates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\CENTSdata\data-raw\Eugene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4986B963-4C82-429E-B6F5-08CF8FC0B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD38F29-3897-4305-AD2F-D28AE9EAB79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{12D20B23-4266-411A-B6D5-0A20568D073A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{12D20B23-4266-411A-B6D5-0A20568D073A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccplanting" sheetId="1" r:id="rId1"/>
     <sheet name="ccterminating" sheetId="2" r:id="rId2"/>
+    <sheet name="ccsampling" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>day</t>
   </si>
@@ -142,6 +143,15 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>fall sampling</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Biomass and pct cover samplings</t>
   </si>
 </sst>
 </file>
@@ -738,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A87D539-7A70-4483-9BC5-DEA88670C2EF}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -943,4 +953,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87476954-D22D-4E08-8635-EF5AE00B5E1B}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>